--- a/Dcf.xlsx
+++ b/Dcf.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\learning-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD59EFB-D915-4032-A803-BB41D445D2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42551D48-783D-4742-B869-A4EB8325FC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2E429BD7-BC5D-4EC3-A067-11C4B75E8339}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{2E429BD7-BC5D-4EC3-A067-11C4B75E8339}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Obligasi" sheetId="1" r:id="rId1"/>
+    <sheet name="Saham" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,14 +34,149 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>ACER</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{DA4AAE28-FFE5-4501-9DF5-573079283F47}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ACER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Discount rate = ditentukan oleh investor berdasarkan suku bunga acuan, risiko penerbit, kondisi pasar.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{27E57882-714F-40F3-82A5-B4C2F46350B1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ACER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nilai wajar obligasi berdasarkan DCF = Rp1.051.765.
+Karena lebih tinggi dari nilai nominal Rp1.000.000 → obligasi ini premium (lebih menarik dari YTM pasar).</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t>Nilai nominal (Face Value</t>
+  </si>
+  <si>
+    <t>Kupon</t>
+  </si>
+  <si>
+    <t>Persentase Pertahun</t>
+  </si>
+  <si>
+    <t>Jatuh Tempo</t>
+  </si>
+  <si>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>Discount rate (YTM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persentase </t>
+  </si>
+  <si>
+    <t>FCF (juta USD)</t>
+  </si>
+  <si>
+    <t>Discount rate (r)</t>
+  </si>
+  <si>
+    <t>Persentase</t>
+  </si>
+  <si>
+    <t>Pertumbuhan jangka panjang (g)</t>
+  </si>
+  <si>
+    <t>*Asumsi Semua</t>
+  </si>
+  <si>
+    <t>Total PV 5 Tahun</t>
+  </si>
+  <si>
+    <t>Hitung Terminal Value (TV)</t>
+  </si>
+  <si>
+    <t>FCF tahun ke-6</t>
+  </si>
+  <si>
+    <t>Tv</t>
+  </si>
+  <si>
+    <t>PV Terminal Value</t>
+  </si>
+  <si>
+    <t>Hitung Nilai Perusahaan (Enterprise Value, EV)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -68,8 +204,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,16 +525,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FA1DC7-A747-45FA-8946-FAE196DCECB3}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FA1DC7-A747-45FA-8946-FAE196DCECB3}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="35.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
@@ -401,7 +543,251 @@
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f>B1*(B2/100)</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>$D$2/POWER(1 + $B$4/100,1)</f>
+        <v>92592.592592592584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>$D$2/POWER(1 +$B$4/100,2)</f>
+        <v>85733.882030178313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>($D$2 +B1)/POWER(1 + $B$4/100,3)</f>
+        <v>873215.46512218658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>SUM(A6:A8)</f>
+        <v>1051541.9397449575</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7252D9AE-3A37-4B4D-BDE6-77DED3C552A5}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>B2/POWER(1 + ($E$1/100),1)</f>
+        <v>90.909090909090907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>B3/POWER(1 + ($E$1/100),2)</f>
+        <v>99.173553719008254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>B4/POWER(1 + ($E$1/100),3)</f>
+        <v>112.69722013523663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>B5/POWER(1 + ($E$1/100),4)</f>
+        <v>122.9424219657127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>B6/POWER(1 + ($E$1/100),5)</f>
+        <v>124.184264611831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B8:B12)</f>
+        <v>549.90655134087956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <f>B6*(1+(E2/100))</f>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <f>(E1/100)-(E2/100)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D16">
+        <f>C15/C16</f>
+        <v>2942.8571428571427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <f>D16/POWER(1 +(E1/100),5)</f>
+        <v>1827.2827507169416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f>C17+B13</f>
+        <v>2377.1893020578209</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>